--- a/tpa3116/供放与喇叭配置.xlsx
+++ b/tpa3116/供放与喇叭配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7140"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
-    <t>总功率</t>
+    <t>新型音柱</t>
   </si>
   <si>
-    <t>个数</t>
-  </si>
-  <si>
-    <t>额定功率</t>
-  </si>
-  <si>
-    <t>喇叭电阻</t>
+    <t>功率</t>
   </si>
   <si>
     <t>总阻抗</t>
   </si>
   <si>
-    <t>可用功率</t>
+    <t>电压</t>
+  </si>
+  <si>
+    <t>4欧15W</t>
+  </si>
+  <si>
+    <t>24V</t>
+  </si>
+  <si>
+    <t>8欧20W</t>
+  </si>
+  <si>
+    <t>吸顶音箱</t>
+  </si>
+  <si>
+    <t>4欧30W</t>
   </si>
 </sst>
 </file>
@@ -41,12 +50,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,8 +64,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,72 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,54 +186,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,187 +217,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +420,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,17 +492,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,205 +514,170 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,83 +1028,181 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="10.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="10.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="16.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
         <v>30</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>70</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>2.67</v>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
